--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_30_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_30_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.971315784799586</v>
+        <v>0.9884289914032741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6858011850906904</v>
+        <v>0.811334909920588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9672524775900695</v>
+        <v>0.9808951344679228</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9503050873494865</v>
+        <v>0.7957321923719767</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9568530472467565</v>
+        <v>0.9472927124565517</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1918114791238344</v>
+        <v>0.07737538776590185</v>
       </c>
       <c r="H2" t="n">
-        <v>2.101048922051066</v>
+        <v>1.261604326083889</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02155006967728582</v>
+        <v>0.1115979638664938</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2369261737232908</v>
+        <v>0.267959453756314</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1292381987633137</v>
+        <v>0.1897787550730033</v>
       </c>
       <c r="L2" t="n">
-        <v>1.866835603008177</v>
+        <v>0.3112270691087241</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4379628741387042</v>
+        <v>0.2781643179236004</v>
       </c>
       <c r="N2" t="n">
-        <v>1.027536846592398</v>
+        <v>1.011108168252857</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4566078603989214</v>
+        <v>0.290006348817127</v>
       </c>
       <c r="P2" t="n">
-        <v>101.3024845377545</v>
+        <v>103.1181730729517</v>
       </c>
       <c r="Q2" t="n">
-        <v>161.0273999562963</v>
+        <v>162.8430884914935</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9762556496412989</v>
+        <v>0.9894872147054865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6855685504057489</v>
+        <v>0.8110864331478365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9341572855770505</v>
+        <v>0.9812270518746272</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9608722058295435</v>
+        <v>0.8129203339638227</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9616273245703808</v>
+        <v>0.9506930094946808</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1587785801813145</v>
+        <v>0.07029904367133731</v>
       </c>
       <c r="H3" t="n">
-        <v>2.102604551260454</v>
+        <v>1.263265891407408</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04332892930934878</v>
+        <v>0.1096591223343261</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1865462290724634</v>
+        <v>0.2454119702075388</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1149377913804225</v>
+        <v>0.1775355877834211</v>
       </c>
       <c r="L3" t="n">
-        <v>1.714523582429737</v>
+        <v>0.2962592316262054</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3984703002499866</v>
+        <v>0.2651396682341918</v>
       </c>
       <c r="N3" t="n">
-        <v>1.022794576344353</v>
+        <v>1.010092273882733</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4154340058788631</v>
+        <v>0.2764272128256985</v>
       </c>
       <c r="P3" t="n">
-        <v>101.6804892495501</v>
+        <v>103.3099941675904</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.405404668092</v>
+        <v>163.0349095861322</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.979864463412188</v>
+        <v>0.9903606090926298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6843082966198839</v>
+        <v>0.81079248815466</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8936115828178757</v>
+        <v>0.9814888655272825</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9678217315001421</v>
+        <v>0.8273867430089384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9627042650576432</v>
+        <v>0.9535406501613848</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1346464258783198</v>
+        <v>0.06445865138289847</v>
       </c>
       <c r="H4" t="n">
-        <v>2.111031874129469</v>
+        <v>1.265231502930271</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07001072552700008</v>
+        <v>0.1081297804763724</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1534135714520321</v>
+        <v>0.2264348679878701</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1117120282646576</v>
+        <v>0.1672823244149191</v>
       </c>
       <c r="L4" t="n">
-        <v>1.578343644218414</v>
+        <v>0.2828107245422766</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3669419925251399</v>
+        <v>0.2538870839229488</v>
       </c>
       <c r="N4" t="n">
-        <v>1.019330115124299</v>
+        <v>1.009253815271075</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3825634728215752</v>
+        <v>0.2646955827042652</v>
       </c>
       <c r="P4" t="n">
-        <v>102.0102060077389</v>
+        <v>103.4834626491614</v>
       </c>
       <c r="Q4" t="n">
-        <v>161.7351214262808</v>
+        <v>163.2083780677033</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9824358130501901</v>
+        <v>0.9910822987279342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6823185379245214</v>
+        <v>0.8104711356313891</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8481024066688784</v>
+        <v>0.9816960044353151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9720826755783709</v>
+        <v>0.8395757998519591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9610961144775717</v>
+        <v>0.9559290277615745</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1174517990090231</v>
+        <v>0.05963270946854259</v>
       </c>
       <c r="H5" t="n">
-        <v>2.124337399687355</v>
+        <v>1.267380388733077</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09995882067417267</v>
+        <v>0.1069198122441884</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1330990337446547</v>
+        <v>0.2104452069081945</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1165289265864743</v>
+        <v>0.1586826914469994</v>
       </c>
       <c r="L5" t="n">
-        <v>1.456325384316133</v>
+        <v>0.2707210656524328</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3427124144366864</v>
+        <v>0.2441980947275031</v>
       </c>
       <c r="N5" t="n">
-        <v>1.016861619471817</v>
+        <v>1.008560993221183</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3573023914317551</v>
+        <v>0.2545941131797967</v>
       </c>
       <c r="P5" t="n">
-        <v>102.2834545015229</v>
+        <v>103.6391020777386</v>
       </c>
       <c r="Q5" t="n">
-        <v>162.0083699200648</v>
+        <v>163.3640174962804</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9842031225175272</v>
+        <v>0.9916793295205129</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6798293111919969</v>
+        <v>0.8101359895541759</v>
       </c>
       <c r="D6" t="n">
-        <v>0.799702596178983</v>
+        <v>0.9818598379979716</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9743426524536811</v>
+        <v>0.8498603201780333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9575780365178432</v>
+        <v>0.9579354178476012</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1056337924632287</v>
+        <v>0.05564036180949559</v>
       </c>
       <c r="H6" t="n">
-        <v>2.140982870309581</v>
+        <v>1.269621512094607</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1318091474063222</v>
+        <v>0.1059628051417429</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1223243357884276</v>
+        <v>0.1969539256303389</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1270666361954119</v>
+        <v>0.1514584492128859</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34682464980405</v>
+        <v>0.2598658282442691</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3250135265850157</v>
+        <v>0.2358820930242387</v>
       </c>
       <c r="N6" t="n">
-        <v>1.015165002383174</v>
+        <v>1.007987843660308</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3388500252824901</v>
+        <v>0.2459240820675277</v>
       </c>
       <c r="P6" t="n">
-        <v>102.4955539090276</v>
+        <v>103.7776928185224</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.2204693275695</v>
+        <v>163.5026082370642</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9853513516402694</v>
+        <v>0.9921739289619869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6770179436927208</v>
+        <v>0.8097972255616961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7500682152210821</v>
+        <v>0.981989902804989</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9751175885592407</v>
+        <v>0.8585512877513252</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9527424058992257</v>
+        <v>0.9596241446835585</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09795557903234176</v>
+        <v>0.0523329730669372</v>
       </c>
       <c r="H7" t="n">
-        <v>2.159782497722397</v>
+        <v>1.271886828472184</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1644719044430913</v>
+        <v>0.1052030527315804</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1186297393684389</v>
+        <v>0.1855530742157392</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1415508152893315</v>
+        <v>0.1453779906743551</v>
       </c>
       <c r="L7" t="n">
-        <v>1.248439168202856</v>
+        <v>0.2501111751734049</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3129785600202381</v>
+        <v>0.2287640117390347</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014062702425341</v>
+        <v>1.007513028196493</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3263027052752348</v>
+        <v>0.2385029693255529</v>
       </c>
       <c r="P7" t="n">
-        <v>102.646482356504</v>
+        <v>103.9002572927938</v>
       </c>
       <c r="Q7" t="n">
-        <v>162.3713977750458</v>
+        <v>163.6251727113356</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9860267247180197</v>
+        <v>0.9925843014624193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6740202632196906</v>
+        <v>0.8094623006877101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7004726653551063</v>
+        <v>0.9820929531202371</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9748003849354586</v>
+        <v>0.8659100637047505</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9470418970050991</v>
+        <v>0.961048167389583</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09343935615161887</v>
+        <v>0.04958881026695442</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1798280008486</v>
+        <v>1.274126472646716</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1971091080127567</v>
+        <v>0.1046011010801444</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1201420438854499</v>
+        <v>0.1758997979227573</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1586255669114092</v>
+        <v>0.1402506303236208</v>
       </c>
       <c r="L8" t="n">
-        <v>1.15996871371711</v>
+        <v>0.2413451094569687</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3056785176482293</v>
+        <v>0.2226854514038904</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013414344270701</v>
+        <v>1.007119070596078</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3186918849862787</v>
+        <v>0.232165632092587</v>
       </c>
       <c r="P8" t="n">
-        <v>102.7408853008532</v>
+        <v>104.0079801403184</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.465800719395</v>
+        <v>163.7328955588602</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9863445492329862</v>
+        <v>0.9929254028464917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6709400897016794</v>
+        <v>0.8091365571788279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6518588018224034</v>
+        <v>0.9821747474981124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9736928388302039</v>
+        <v>0.8721541495186999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9408202273021795</v>
+        <v>0.9622519681689881</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09131406215659059</v>
+        <v>0.04730786374103475</v>
       </c>
       <c r="H9" t="n">
-        <v>2.200425135346435</v>
+        <v>1.276304720990522</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2291002960268496</v>
+        <v>0.1041233125287788</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1254223964797999</v>
+        <v>0.1677087773045684</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1772613530885727</v>
+        <v>0.1359162047836406</v>
       </c>
       <c r="L9" t="n">
-        <v>1.080365767841787</v>
+        <v>0.233465766973044</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3021821671717088</v>
+        <v>0.2175037097178684</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013109232736333</v>
+        <v>1.006791613267368</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3150466876315294</v>
+        <v>0.226763292935307</v>
       </c>
       <c r="P9" t="n">
-        <v>102.7869009636219</v>
+        <v>104.102157489699</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.5118163821637</v>
+        <v>163.8270729082408</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.98639556906536</v>
+        <v>0.9932093987829699</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6678554221330657</v>
+        <v>0.8088236964708049</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6048955710421635</v>
+        <v>0.9822396863136676</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9720278809545033</v>
+        <v>0.8774621182535138</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9343362532485817</v>
+        <v>0.9632716055058858</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09097289230258201</v>
+        <v>0.04540878160612426</v>
       </c>
       <c r="H10" t="n">
-        <v>2.221052321581343</v>
+        <v>1.278396821985663</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2600052568026829</v>
+        <v>0.1037439830025021</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1333602733742492</v>
+        <v>0.1607457593956161</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1966828202848172</v>
+        <v>0.1322448812638544</v>
       </c>
       <c r="L10" t="n">
-        <v>1.008713158392632</v>
+        <v>0.2263869802506855</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3016171286624518</v>
+        <v>0.2130933635900571</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013060253697254</v>
+        <v>1.006518977168349</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3144575942631423</v>
+        <v>0.2221651892421597</v>
       </c>
       <c r="P10" t="n">
-        <v>102.7943874072544</v>
+        <v>104.1840995303837</v>
       </c>
       <c r="Q10" t="n">
-        <v>162.5193028257962</v>
+        <v>163.9090149489255</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9862508986467813</v>
+        <v>0.9934463475883514</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6648240789837286</v>
+        <v>0.8085261900347214</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5600378170738618</v>
+        <v>0.9822911702501226</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9699851687132265</v>
+        <v>0.8819862954942919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9277829386443397</v>
+        <v>0.9641375104923477</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09194030405776435</v>
+        <v>0.04382430385348906</v>
       </c>
       <c r="H11" t="n">
-        <v>2.241322927179012</v>
+        <v>1.280386248893645</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2895246723933508</v>
+        <v>0.1034432479635378</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1430991373651582</v>
+        <v>0.1548109227896285</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2163119834432257</v>
+        <v>0.1291270890570973</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9441976568094564</v>
+        <v>0.2200244144123467</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3032165959471288</v>
+        <v>0.2093425514640754</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01319913729909</v>
+        <v>1.006291506315183</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3161251541814817</v>
+        <v>0.2182546972787235</v>
       </c>
       <c r="P11" t="n">
-        <v>102.773231562954</v>
+        <v>104.2551334659807</v>
       </c>
       <c r="Q11" t="n">
-        <v>162.4981469814958</v>
+        <v>163.9800488845225</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9859660645241478</v>
+        <v>0.9936444313591259</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6618879329444437</v>
+        <v>0.8082455636723186</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5175720113304323</v>
+        <v>0.9823319167981993</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9677035887197094</v>
+        <v>0.8858505311559959</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9213022865398672</v>
+        <v>0.9648744927472167</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09384499114735494</v>
+        <v>0.04249971676622744</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26095694926342</v>
+        <v>1.282262798671197</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3174700253644041</v>
+        <v>0.103205233631936</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1539768306556008</v>
+        <v>0.1497418005959763</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2357235003951555</v>
+        <v>0.1264734982282269</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8861003953618729</v>
+        <v>0.2143068373273304</v>
       </c>
       <c r="M12" t="n">
-        <v>0.306341298468481</v>
+        <v>0.2061545943369379</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013472578056818</v>
+        <v>1.006101345895239</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3193828817581938</v>
+        <v>0.2149310222167028</v>
       </c>
       <c r="P12" t="n">
-        <v>102.7322217764131</v>
+        <v>104.3165157347961</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.4571371949549</v>
+        <v>164.0414311533379</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9855842252450198</v>
+        <v>0.9938104173995742</v>
       </c>
       <c r="C13" t="n">
-        <v>0.659075994259096</v>
+        <v>0.8079825063444629</v>
       </c>
       <c r="D13" t="n">
-        <v>0.477656965804889</v>
+        <v>0.9823642428585369</v>
       </c>
       <c r="E13" t="n">
-        <v>0.965289466969249</v>
+        <v>0.8891596331754842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9149962907113023</v>
+        <v>0.9655035078548329</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09639835216509229</v>
+        <v>0.0413897673494544</v>
       </c>
       <c r="H13" t="n">
-        <v>2.279760396200127</v>
+        <v>1.284021864233837</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3437368067556782</v>
+        <v>0.1030164062095479</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1654864319152148</v>
+        <v>0.1454009052788802</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2546118688728446</v>
+        <v>0.124208655744214</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8337750383119997</v>
+        <v>0.2104925090415919</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3104808402544226</v>
+        <v>0.2034447525729145</v>
       </c>
       <c r="N13" t="n">
-        <v>1.013839143764781</v>
+        <v>1.005941999296409</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3236986524079958</v>
+        <v>0.2121058168786391</v>
       </c>
       <c r="P13" t="n">
-        <v>102.6785323424697</v>
+        <v>104.3694431883468</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.4034477610115</v>
+        <v>164.0943586068886</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9851386693040136</v>
+        <v>0.9939497887715597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6564075235717501</v>
+        <v>0.8077373183437446</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4403573896326836</v>
+        <v>0.9823896964638238</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9628227304425226</v>
+        <v>0.8920005923231284</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9089359030246962</v>
+        <v>0.9660416476180012</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09937778679419697</v>
+        <v>0.04045779034324114</v>
       </c>
       <c r="H14" t="n">
-        <v>2.297604471973587</v>
+        <v>1.285661437523626</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3682824336089789</v>
+        <v>0.1028677231152698</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1772468801319337</v>
+        <v>0.141674121943872</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2727645665361913</v>
+        <v>0.1222710205694731</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7869662498566171</v>
+        <v>0.207075389926693</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3152424254350879</v>
+        <v>0.201141219900947</v>
       </c>
       <c r="N14" t="n">
-        <v>1.014266877468147</v>
+        <v>1.005808202779303</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3286629481276422</v>
+        <v>0.209704218051856</v>
       </c>
       <c r="P14" t="n">
-        <v>102.6176533263776</v>
+        <v>104.4149921241983</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.3425687449194</v>
+        <v>164.1399075427402</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9846549925666414</v>
+        <v>0.9940671568418185</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6538939911245661</v>
+        <v>0.8075097793353092</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4056734261454734</v>
+        <v>0.9824097772574338</v>
       </c>
       <c r="E15" t="n">
-        <v>0.960363940670364</v>
+        <v>0.8944455119081007</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9031690034923772</v>
+        <v>0.9665033799584315</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1026121353641316</v>
+        <v>0.03967294951699084</v>
       </c>
       <c r="H15" t="n">
-        <v>2.314412475021659</v>
+        <v>1.287182991920755</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3911068116024469</v>
+        <v>0.1027504244263077</v>
       </c>
       <c r="J15" t="n">
-        <v>0.188969441288332</v>
+        <v>0.1384668651368654</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2900381782386977</v>
+        <v>0.1206084992592733</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7453190197363135</v>
+        <v>0.2039877943715317</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3203312900172751</v>
+        <v>0.1991806956434053</v>
       </c>
       <c r="N15" t="n">
-        <v>1.014731207136024</v>
+        <v>1.005695529431854</v>
       </c>
       <c r="O15" t="n">
-        <v>0.333968456210495</v>
+        <v>0.207660230217826</v>
       </c>
       <c r="P15" t="n">
-        <v>102.5535981496739</v>
+        <v>104.4541713917933</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.2785135682157</v>
+        <v>164.1790868103351</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9841525410481825</v>
+        <v>0.9941661838298721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.651541041761408</v>
+        <v>0.8072994408109083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3735494765922116</v>
+        <v>0.9824255991379646</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9579566969922859</v>
+        <v>0.8965546704304116</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8977245347166715</v>
+        <v>0.9669003700842599</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1059720309816423</v>
+        <v>0.03901075559189907</v>
       </c>
       <c r="H16" t="n">
-        <v>2.330146658247433</v>
+        <v>1.288589526601943</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4122465284493152</v>
+        <v>0.1026580034852233</v>
       </c>
       <c r="J16" t="n">
-        <v>0.200446250552041</v>
+        <v>0.1357000612430621</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3063460121156198</v>
+        <v>0.1191790898669976</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7078058642131319</v>
+        <v>0.2012077646201595</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3255334560097353</v>
+        <v>0.1975114062323973</v>
       </c>
       <c r="N16" t="n">
-        <v>1.015213560593745</v>
+        <v>1.005600463523323</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3393920891792224</v>
+        <v>0.2059198757006859</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4891601567013</v>
+        <v>104.4878357729327</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.2140755752431</v>
+        <v>164.2127511914745</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9836458584988869</v>
+        <v>0.9942499969243074</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6493497841581881</v>
+        <v>0.807105626124252</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3439006830751677</v>
+        <v>0.9824381108482463</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9556326937255651</v>
+        <v>0.8983787309953293</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8926179920325279</v>
+        <v>0.96724281770452</v>
       </c>
       <c r="G17" t="n">
-        <v>0.109360219521841</v>
+        <v>0.0384502970434861</v>
       </c>
       <c r="H17" t="n">
-        <v>2.344799607929977</v>
+        <v>1.289885566304049</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4317574263469223</v>
+        <v>0.1025849183651219</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2115262016443569</v>
+        <v>0.1333072501669092</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3216416549430749</v>
+        <v>0.1179460671469969</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6740218045913403</v>
+        <v>0.1987011637985938</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3306965671455345</v>
+        <v>0.1960874729387018</v>
       </c>
       <c r="N17" t="n">
-        <v>1.015699975841069</v>
+        <v>1.005520002952665</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3447750046451861</v>
+        <v>0.2044353226187295</v>
       </c>
       <c r="P17" t="n">
-        <v>102.4262161584727</v>
+        <v>104.5167777152241</v>
       </c>
       <c r="Q17" t="n">
-        <v>162.1511315770145</v>
+        <v>164.2416931337659</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9831456279626702</v>
+        <v>0.994321086245856</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6473179597437249</v>
+        <v>0.8069275548381026</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3166184816305579</v>
+        <v>0.9824477321677866</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9534130651215329</v>
+        <v>0.8999604957107983</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8878544937016593</v>
+        <v>0.9675387279258315</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1127052634208717</v>
+        <v>0.03797492242295401</v>
       </c>
       <c r="H18" t="n">
-        <v>2.358386427145184</v>
+        <v>1.291076329814473</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4497109476766092</v>
+        <v>0.1025287169923043</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2221085346074613</v>
+        <v>0.1312322839054613</v>
       </c>
       <c r="K18" t="n">
-        <v>0.335909775976193</v>
+        <v>0.1168806077763626</v>
       </c>
       <c r="L18" t="n">
-        <v>0.643605324017784</v>
+        <v>0.196445225816593</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3357160458197846</v>
+        <v>0.194871553652538</v>
       </c>
       <c r="N18" t="n">
-        <v>1.016180197155837</v>
+        <v>1.005451757203978</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3500081729183522</v>
+        <v>0.2031676391312539</v>
       </c>
       <c r="P18" t="n">
-        <v>102.3659583121822</v>
+        <v>104.5416585466951</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.090873730724</v>
+        <v>164.266573965237</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9826595342851395</v>
+        <v>0.9943815605213089</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6454410216437325</v>
+        <v>0.8067643164973954</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2915767959140727</v>
+        <v>0.982455218050087</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9513114723033643</v>
+        <v>0.9013350486275616</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8834311801676259</v>
+        <v>0.9677952415970057</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1159557740807749</v>
+        <v>0.03757053066454279</v>
       </c>
       <c r="H19" t="n">
-        <v>2.370937520862338</v>
+        <v>1.292167905350424</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4661900591425595</v>
+        <v>0.1024849894287122</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2321281184758286</v>
+        <v>0.1294291390388665</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3491589404530723</v>
+        <v>0.1159570002935356</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6162086860886449</v>
+        <v>0.1944085996350319</v>
       </c>
       <c r="M19" t="n">
-        <v>0.340522795243982</v>
+        <v>0.1938311911549397</v>
       </c>
       <c r="N19" t="n">
-        <v>1.016646847086266</v>
+        <v>1.005393701899544</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3550195556168808</v>
+        <v>0.2020829862482856</v>
       </c>
       <c r="P19" t="n">
-        <v>102.3090928369948</v>
+        <v>104.5630705896153</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.0340082555366</v>
+        <v>164.2879860081571</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9821929342004599</v>
+        <v>0.9944331509415453</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6437126114776339</v>
+        <v>0.8066150407120869</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2686427412829602</v>
+        <v>0.9824610575148148</v>
       </c>
       <c r="E20" t="n">
-        <v>0.949335856507632</v>
+        <v>0.90253231217411</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8793395601538421</v>
+        <v>0.9680180980328631</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1190759309955228</v>
+        <v>0.03722554528686992</v>
       </c>
       <c r="H20" t="n">
-        <v>2.382495407601636</v>
+        <v>1.293166113214135</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4812822077667034</v>
+        <v>0.1024508791455173</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2415470924968107</v>
+        <v>0.1278585631871902</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3614145823202861</v>
+        <v>0.1151545796240568</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5915389532440699</v>
+        <v>0.1925745772709741</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3450738051424982</v>
+        <v>0.1929392269261747</v>
       </c>
       <c r="N20" t="n">
-        <v>1.017094783167559</v>
+        <v>1.005344175096117</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3597643114286661</v>
+        <v>0.2011530492556814</v>
       </c>
       <c r="P20" t="n">
-        <v>102.2559878275233</v>
+        <v>104.581520104229</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.9809032460651</v>
+        <v>164.3064355227709</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9817493693035599</v>
+        <v>0.9944772781773382</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6421253427453344</v>
+        <v>0.8064787406429158</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2476761883101986</v>
+        <v>0.9824655593906161</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9474897524438125</v>
+        <v>0.9035782036263608</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8755671878577596</v>
+        <v>0.9682121843708752</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1220420515035221</v>
+        <v>0.03693046625793505</v>
       </c>
       <c r="H21" t="n">
-        <v>2.393109480923225</v>
+        <v>1.294077552404286</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4950796081257151</v>
+        <v>0.1024245821704268</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2503486045391354</v>
+        <v>0.1264865579481469</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3727139805280468</v>
+        <v>0.1144557490577097</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5693287656356858</v>
+        <v>0.1909237972680235</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3493451752973298</v>
+        <v>0.1921730112631195</v>
       </c>
       <c r="N21" t="n">
-        <v>1.017520605468582</v>
+        <v>1.005301812949755</v>
       </c>
       <c r="O21" t="n">
-        <v>0.364217522653944</v>
+        <v>0.200354214205565</v>
       </c>
       <c r="P21" t="n">
-        <v>102.2067792183676</v>
+        <v>104.5974368494911</v>
       </c>
       <c r="Q21" t="n">
-        <v>161.9316946369095</v>
+        <v>164.3223522680329</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9813309837254719</v>
+        <v>0.9945151148607788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6406712706669732</v>
+        <v>0.8063545123034349</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2285438427771099</v>
+        <v>0.9824689341479945</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9457728041437007</v>
+        <v>0.9044928839762006</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8720990807313738</v>
+        <v>0.9683815864002737</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1248397977906848</v>
+        <v>0.03667745218154608</v>
       </c>
       <c r="H22" t="n">
-        <v>2.402832867606612</v>
+        <v>1.294908267882414</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5076699767699988</v>
+        <v>0.1024048690742346</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2585343517218905</v>
+        <v>0.1252866760394369</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3831020123479442</v>
+        <v>0.1138457972323652</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5493284899186339</v>
+        <v>0.1894361018276781</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3533267578187149</v>
+        <v>0.1915135822377778</v>
       </c>
       <c r="N22" t="n">
-        <v>1.017922255623547</v>
+        <v>1.005265489733652</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3683686093862765</v>
+        <v>0.1996667119214082</v>
       </c>
       <c r="P22" t="n">
-        <v>102.1614479626573</v>
+        <v>104.6111861894116</v>
       </c>
       <c r="Q22" t="n">
-        <v>161.8863633811992</v>
+        <v>164.3361016079534</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9809389174520113</v>
+        <v>0.9945476546106916</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6393418276123419</v>
+        <v>0.8062414169006867</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2111117047176309</v>
+        <v>0.9824714898780912</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9441829514261803</v>
+        <v>0.9052952164746204</v>
       </c>
       <c r="F23" t="n">
-        <v>0.868918790673659</v>
+        <v>0.9685297720912042</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1274615467666153</v>
+        <v>0.03645985872404751</v>
       </c>
       <c r="H23" t="n">
-        <v>2.411722859434454</v>
+        <v>1.295664537361347</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5191414946791497</v>
+        <v>0.1023899401926627</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2661141561939248</v>
+        <v>0.1242341725612628</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3926279448269893</v>
+        <v>0.1133122373157933</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5313182056818503</v>
+        <v>0.1880963389174015</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3570175720698007</v>
+        <v>0.1909446483252346</v>
       </c>
       <c r="N23" t="n">
-        <v>1.018298639246069</v>
+        <v>1.005234251573736</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3722165492410697</v>
+        <v>0.1990735573143524</v>
       </c>
       <c r="P23" t="n">
-        <v>102.1198811077192</v>
+        <v>104.6230867691191</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.844796526261</v>
+        <v>164.3480021876609</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9805734623374012</v>
+        <v>0.9945757126124595</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6381285759787996</v>
+        <v>0.8061386116539244</v>
       </c>
       <c r="D24" t="n">
-        <v>0.195248781289575</v>
+        <v>0.9824733910681946</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9427158993120893</v>
+        <v>0.905999696059857</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8660086017311034</v>
+        <v>0.9686596401173582</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1299053468007797</v>
+        <v>0.03627223473703015</v>
       </c>
       <c r="H24" t="n">
-        <v>2.419835878694461</v>
+        <v>1.296351996519822</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5295803639432376</v>
+        <v>0.1023788346999746</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2731084947590942</v>
+        <v>0.1233100329866793</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4013448426145978</v>
+        <v>0.112844632294249</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5151064680066283</v>
+        <v>0.186889750118339</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3604238432745254</v>
+        <v>0.1904527099755479</v>
       </c>
       <c r="N24" t="n">
-        <v>1.018649476156095</v>
+        <v>1.005207315892039</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3757678324629331</v>
+        <v>0.1985606761306668</v>
       </c>
       <c r="P24" t="n">
-        <v>102.0818983905073</v>
+        <v>104.6334054273224</v>
       </c>
       <c r="Q24" t="n">
-        <v>161.8068138090492</v>
+        <v>164.3583208458642</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.980234343559642</v>
+        <v>0.9945999766831694</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6370231004098009</v>
+        <v>0.8060452301929836</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1808309195414575</v>
+        <v>0.9824747457077497</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9413659570443337</v>
+        <v>0.906619784064091</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8633505716846943</v>
+        <v>0.9687737139658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1321730356291534</v>
+        <v>0.03610998078446771</v>
       </c>
       <c r="H25" t="n">
-        <v>2.427228198914603</v>
+        <v>1.296976438779115</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5390682855447566</v>
+        <v>0.1023709217933977</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2795444987520175</v>
+        <v>0.1224965986779409</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4093064480939289</v>
+        <v>0.1124338960571114</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5005116301302308</v>
+        <v>0.1858044333283298</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3635560969494988</v>
+        <v>0.1900262634071083</v>
       </c>
       <c r="N25" t="n">
-        <v>1.018975030182744</v>
+        <v>1.005184022384157</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3790334326615091</v>
+        <v>0.1981160748489427</v>
       </c>
       <c r="P25" t="n">
-        <v>102.0472866777302</v>
+        <v>104.6423719516634</v>
       </c>
       <c r="Q25" t="n">
-        <v>161.7722020962721</v>
+        <v>164.3672873702053</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9799208343580527</v>
+        <v>0.994620995544837</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6360171865862907</v>
+        <v>0.8059605329427734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1677398872632067</v>
+        <v>0.9824757043601374</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9401270687816788</v>
+        <v>0.9071664834391281</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8609266714305872</v>
+        <v>0.9688740946022071</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1342694731037586</v>
+        <v>0.03596942755971327</v>
       </c>
       <c r="H26" t="n">
-        <v>2.433954749284223</v>
+        <v>1.297542809681266</v>
       </c>
       <c r="I26" t="n">
-        <v>0.547683064220604</v>
+        <v>0.1023653219814363</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2854510400876625</v>
+        <v>0.121779435912036</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4165667638945437</v>
+        <v>0.1120724638323279</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4873721723967973</v>
+        <v>0.1848263982101408</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3664279917033613</v>
+        <v>0.1896560770439832</v>
       </c>
       <c r="N26" t="n">
-        <v>1.019275999016269</v>
+        <v>1.005163844276957</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3820275899206851</v>
+        <v>0.1977301288859479</v>
       </c>
       <c r="P26" t="n">
-        <v>102.0158130101197</v>
+        <v>104.6501718715646</v>
       </c>
       <c r="Q26" t="n">
-        <v>161.7407284286615</v>
+        <v>164.3750872901064</v>
       </c>
     </row>
   </sheetData>
